--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H2">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I2">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J2">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N2">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q2">
-        <v>1896.858304716268</v>
+        <v>2027.746051046812</v>
       </c>
       <c r="R2">
-        <v>1896.858304716268</v>
+        <v>18249.71445942131</v>
       </c>
       <c r="S2">
-        <v>0.1552306846538639</v>
+        <v>0.152206608785399</v>
       </c>
       <c r="T2">
-        <v>0.1552306846538639</v>
+        <v>0.152206608785399</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H3">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I3">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J3">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q3">
-        <v>2361.654486667212</v>
+        <v>2521.684580645066</v>
       </c>
       <c r="R3">
-        <v>2361.654486667212</v>
+        <v>22695.1612258056</v>
       </c>
       <c r="S3">
-        <v>0.1932675951438855</v>
+        <v>0.1892826067881002</v>
       </c>
       <c r="T3">
-        <v>0.1932675951438855</v>
+        <v>0.1892826067881001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H4">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I4">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J4">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N4">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q4">
-        <v>1730.422890187864</v>
+        <v>1889.409289002731</v>
       </c>
       <c r="R4">
-        <v>1730.422890187864</v>
+        <v>17004.68360102458</v>
       </c>
       <c r="S4">
-        <v>0.1416103297313815</v>
+        <v>0.1418227792076211</v>
       </c>
       <c r="T4">
-        <v>0.1416103297313815</v>
+        <v>0.141822779207621</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H5">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I5">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J5">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N5">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q5">
-        <v>1470.983610567457</v>
+        <v>1625.225431836241</v>
       </c>
       <c r="R5">
-        <v>1470.983610567457</v>
+        <v>14627.02888652617</v>
       </c>
       <c r="S5">
-        <v>0.120378940490842</v>
+        <v>0.1219926190283426</v>
       </c>
       <c r="T5">
-        <v>0.120378940490842</v>
+        <v>0.1219926190283426</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>44.2593408522156</v>
+        <v>47.25665799999999</v>
       </c>
       <c r="H6">
-        <v>44.2593408522156</v>
+        <v>141.769974</v>
       </c>
       <c r="I6">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614213</v>
       </c>
       <c r="J6">
-        <v>0.6328359878127039</v>
+        <v>0.6282707309614212</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N6">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q6">
-        <v>273.0891764028653</v>
+        <v>305.962098061208</v>
       </c>
       <c r="R6">
-        <v>273.0891764028653</v>
+        <v>2753.658882550872</v>
       </c>
       <c r="S6">
-        <v>0.02234843779273094</v>
+        <v>0.02296611715195843</v>
       </c>
       <c r="T6">
-        <v>0.02234843779273094</v>
+        <v>0.02296611715195843</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H7">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I7">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J7">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N7">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q7">
-        <v>483.5587563280416</v>
+        <v>484.2614461394366</v>
       </c>
       <c r="R7">
-        <v>483.5587563280416</v>
+        <v>4358.353015254929</v>
       </c>
       <c r="S7">
-        <v>0.03957235847745663</v>
+        <v>0.03634961707574062</v>
       </c>
       <c r="T7">
-        <v>0.03957235847745663</v>
+        <v>0.03634961707574061</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H8">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I8">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J8">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q8">
-        <v>602.0474505712521</v>
+        <v>602.2226605251111</v>
       </c>
       <c r="R8">
-        <v>602.0474505712521</v>
+        <v>5420.003944726</v>
       </c>
       <c r="S8">
-        <v>0.0492689610573036</v>
+        <v>0.04520401795132464</v>
       </c>
       <c r="T8">
-        <v>0.0492689610573036</v>
+        <v>0.04520401795132463</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H9">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I9">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J9">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N9">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q9">
-        <v>441.1300193695711</v>
+        <v>451.2241925804272</v>
       </c>
       <c r="R9">
-        <v>441.1300193695711</v>
+        <v>4061.017733223845</v>
       </c>
       <c r="S9">
-        <v>0.03610017403927993</v>
+        <v>0.0338697758129729</v>
       </c>
       <c r="T9">
-        <v>0.03610017403927993</v>
+        <v>0.03386977581297289</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H10">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I10">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J10">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N10">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q10">
-        <v>374.9921665399931</v>
+        <v>388.1324377464856</v>
       </c>
       <c r="R10">
-        <v>374.9921665399931</v>
+        <v>3493.19193971837</v>
       </c>
       <c r="S10">
-        <v>0.03068773803879145</v>
+        <v>0.0291339845433331</v>
       </c>
       <c r="T10">
-        <v>0.03068773803879145</v>
+        <v>0.0291339845433331</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.2828627025979</v>
+        <v>11.28572166666667</v>
       </c>
       <c r="H11">
-        <v>11.2828627025979</v>
+        <v>33.85716499999999</v>
       </c>
       <c r="I11">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="J11">
-        <v>0.1613264324833753</v>
+        <v>0.1500421083721963</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N11">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O11">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P11">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q11">
-        <v>69.61756825993992</v>
+        <v>73.06913407351333</v>
       </c>
       <c r="R11">
-        <v>69.61756825993992</v>
+        <v>657.62220666162</v>
       </c>
       <c r="S11">
-        <v>0.005697200870543704</v>
+        <v>0.00548471298882503</v>
       </c>
       <c r="T11">
-        <v>0.005697200870543704</v>
+        <v>0.005484712988825029</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H12">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I12">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J12">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N12">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O12">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P12">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q12">
-        <v>5.867064237800111</v>
+        <v>10.317820870798</v>
       </c>
       <c r="R12">
-        <v>5.867064237800111</v>
+        <v>92.860387837182</v>
       </c>
       <c r="S12">
-        <v>0.0004801351773495495</v>
+        <v>0.0007744759379453089</v>
       </c>
       <c r="T12">
-        <v>0.0004801351773495495</v>
+        <v>0.0007744759379453088</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H13">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I13">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J13">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P13">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q13">
-        <v>7.304698799227364</v>
+        <v>12.83113819026667</v>
       </c>
       <c r="R13">
-        <v>7.304698799227364</v>
+        <v>115.4802437124</v>
       </c>
       <c r="S13">
-        <v>0.0005977849758071053</v>
+        <v>0.0009631304816444321</v>
       </c>
       <c r="T13">
-        <v>0.0005977849758071053</v>
+        <v>0.000963130481644432</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H14">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I14">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J14">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N14">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O14">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P14">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q14">
-        <v>5.352272349520878</v>
+        <v>9.613919152000333</v>
       </c>
       <c r="R14">
-        <v>5.352272349520878</v>
+        <v>86.525272368003</v>
       </c>
       <c r="S14">
-        <v>0.0004380068343556884</v>
+        <v>0.0007216396897962388</v>
       </c>
       <c r="T14">
-        <v>0.0004380068343556884</v>
+        <v>0.0007216396897962386</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H15">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I15">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J15">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N15">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O15">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P15">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q15">
-        <v>4.549815510463942</v>
+        <v>8.269667136915334</v>
       </c>
       <c r="R15">
-        <v>4.549815510463942</v>
+        <v>74.427004232238</v>
       </c>
       <c r="S15">
-        <v>0.0003723372351967696</v>
+        <v>0.0006207374883280614</v>
       </c>
       <c r="T15">
-        <v>0.0003723372351967696</v>
+        <v>0.0006207374883280612</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.136896042923713</v>
+        <v>0.240457</v>
       </c>
       <c r="H16">
-        <v>0.136896042923713</v>
+        <v>0.721371</v>
       </c>
       <c r="I16">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="J16">
-        <v>0.001957388901035597</v>
+        <v>0.003196842551895872</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N16">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O16">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P16">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q16">
-        <v>0.8446765562930115</v>
+        <v>1.556833075532</v>
       </c>
       <c r="R16">
-        <v>0.8446765562930115</v>
+        <v>14.011497679788</v>
       </c>
       <c r="S16">
-        <v>6.912467832648419E-05</v>
+        <v>0.0001168589541818313</v>
       </c>
       <c r="T16">
-        <v>6.912467832648419E-05</v>
+        <v>0.0001168589541818312</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.2589913208765</v>
+        <v>0.191908</v>
       </c>
       <c r="H17">
-        <v>14.2589913208765</v>
+        <v>0.575724</v>
       </c>
       <c r="I17">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817814</v>
       </c>
       <c r="J17">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817813</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N17">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O17">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P17">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q17">
-        <v>611.1091033685785</v>
+        <v>8.234621440311999</v>
       </c>
       <c r="R17">
-        <v>611.1091033685785</v>
+        <v>74.111592962808</v>
       </c>
       <c r="S17">
-        <v>0.05001052755403514</v>
+        <v>0.0006181068893781772</v>
       </c>
       <c r="T17">
-        <v>0.05001052755403514</v>
+        <v>0.0006181068893781771</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.2589913208765</v>
+        <v>0.191908</v>
       </c>
       <c r="H18">
-        <v>14.2589913208765</v>
+        <v>0.575724</v>
       </c>
       <c r="I18">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817814</v>
       </c>
       <c r="J18">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817813</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N18">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O18">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P18">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q18">
-        <v>760.8520637652259</v>
+        <v>10.24049234506667</v>
       </c>
       <c r="R18">
-        <v>760.8520637652259</v>
+        <v>92.16443110560002</v>
       </c>
       <c r="S18">
-        <v>0.06226484418204757</v>
+        <v>0.0007686715066370273</v>
       </c>
       <c r="T18">
-        <v>0.06226484418204757</v>
+        <v>0.0007686715066370272</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.2589913208765</v>
+        <v>0.191908</v>
       </c>
       <c r="H19">
-        <v>14.2589913208765</v>
+        <v>0.575724</v>
       </c>
       <c r="I19">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817814</v>
       </c>
       <c r="J19">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817813</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N19">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O19">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P19">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q19">
-        <v>557.4887582493135</v>
+        <v>7.672839620481334</v>
       </c>
       <c r="R19">
-        <v>557.4887582493135</v>
+        <v>69.05555658433201</v>
       </c>
       <c r="S19">
-        <v>0.04562247027872643</v>
+        <v>0.0005759384405087671</v>
       </c>
       <c r="T19">
-        <v>0.04562247027872643</v>
+        <v>0.000575938440508767</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.2589913208765</v>
+        <v>0.191908</v>
       </c>
       <c r="H20">
-        <v>14.2589913208765</v>
+        <v>0.575724</v>
       </c>
       <c r="I20">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817814</v>
       </c>
       <c r="J20">
-        <v>0.2038801908028853</v>
+        <v>0.002551390312817813</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N20">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O20">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P20">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q20">
-        <v>473.9054430627148</v>
+        <v>6.599996177741334</v>
       </c>
       <c r="R20">
-        <v>473.9054430627148</v>
+        <v>59.399965599672</v>
       </c>
       <c r="S20">
-        <v>0.03878237304542456</v>
+        <v>0.0004954087005579443</v>
       </c>
       <c r="T20">
-        <v>0.03878237304542456</v>
+        <v>0.000495408700557944</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.191908</v>
+      </c>
+      <c r="H21">
+        <v>0.575724</v>
+      </c>
+      <c r="I21">
+        <v>0.002551390312817814</v>
+      </c>
+      <c r="J21">
+        <v>0.002551390312817813</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.474476</v>
+      </c>
+      <c r="N21">
+        <v>19.423428</v>
+      </c>
+      <c r="O21">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="P21">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="Q21">
+        <v>1.242503740208</v>
+      </c>
+      <c r="R21">
+        <v>11.182533661872</v>
+      </c>
+      <c r="S21">
+        <v>9.32647757358982E-05</v>
+      </c>
+      <c r="T21">
+        <v>9.326477573589819E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H22">
+        <v>48.726854</v>
+      </c>
+      <c r="I22">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J22">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>42.909214</v>
+      </c>
+      <c r="N22">
+        <v>128.727642</v>
+      </c>
+      <c r="O22">
+        <v>0.2422627718984814</v>
+      </c>
+      <c r="P22">
+        <v>0.2422627718984814</v>
+      </c>
+      <c r="Q22">
+        <v>696.9436686109186</v>
+      </c>
+      <c r="R22">
+        <v>6272.493017498267</v>
+      </c>
+      <c r="S22">
+        <v>0.05231396321001833</v>
+      </c>
+      <c r="T22">
+        <v>0.05231396321001831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H23">
+        <v>48.726854</v>
+      </c>
+      <c r="I23">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J23">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>53.36146666666667</v>
+      </c>
+      <c r="N23">
+        <v>160.0844</v>
+      </c>
+      <c r="O23">
+        <v>0.3012755448569878</v>
+      </c>
+      <c r="P23">
+        <v>0.3012755448569878</v>
+      </c>
+      <c r="Q23">
+        <v>866.7121318308446</v>
+      </c>
+      <c r="R23">
+        <v>7800.4091864776</v>
+      </c>
+      <c r="S23">
+        <v>0.0650571181292815</v>
+      </c>
+      <c r="T23">
+        <v>0.06505711812928149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H24">
+        <v>48.726854</v>
+      </c>
+      <c r="I24">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J24">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>39.98186433333333</v>
+      </c>
+      <c r="N24">
+        <v>119.945593</v>
+      </c>
+      <c r="O24">
+        <v>0.2257351364921847</v>
+      </c>
+      <c r="P24">
+        <v>0.2257351364921847</v>
+      </c>
+      <c r="Q24">
+        <v>649.3968220060469</v>
+      </c>
+      <c r="R24">
+        <v>5844.571398054421</v>
+      </c>
+      <c r="S24">
+        <v>0.04874500334128572</v>
+      </c>
+      <c r="T24">
+        <v>0.0487450033412857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>14.2589913208765</v>
-      </c>
-      <c r="H21">
-        <v>14.2589913208765</v>
-      </c>
-      <c r="I21">
-        <v>0.2038801908028853</v>
-      </c>
-      <c r="J21">
-        <v>0.2038801908028853</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>6.17020432623986</v>
-      </c>
-      <c r="N21">
-        <v>6.17020432623986</v>
-      </c>
-      <c r="O21">
-        <v>0.03531473908425267</v>
-      </c>
-      <c r="P21">
-        <v>0.03531473908425267</v>
-      </c>
-      <c r="Q21">
-        <v>87.9808899358888</v>
-      </c>
-      <c r="R21">
-        <v>87.9808899358888</v>
-      </c>
-      <c r="S21">
-        <v>0.007199975742651544</v>
-      </c>
-      <c r="T21">
-        <v>0.007199975742651544</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H25">
+        <v>48.726854</v>
+      </c>
+      <c r="I25">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J25">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>34.39145933333334</v>
+      </c>
+      <c r="N25">
+        <v>103.174378</v>
+      </c>
+      <c r="O25">
+        <v>0.1941720551610951</v>
+      </c>
+      <c r="P25">
+        <v>0.1941720551610951</v>
+      </c>
+      <c r="Q25">
+        <v>558.5958725940902</v>
+      </c>
+      <c r="R25">
+        <v>5027.362853346812</v>
+      </c>
+      <c r="S25">
+        <v>0.04192930540053336</v>
+      </c>
+      <c r="T25">
+        <v>0.04192930540053334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>16.24228466666667</v>
+      </c>
+      <c r="H26">
+        <v>48.726854</v>
+      </c>
+      <c r="I26">
+        <v>0.2159389278016688</v>
+      </c>
+      <c r="J26">
+        <v>0.2159389278016687</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.474476</v>
+      </c>
+      <c r="N26">
+        <v>19.423428</v>
+      </c>
+      <c r="O26">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="P26">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="Q26">
+        <v>105.1602822595013</v>
+      </c>
+      <c r="R26">
+        <v>946.442540335512</v>
+      </c>
+      <c r="S26">
+        <v>0.007893537720549871</v>
+      </c>
+      <c r="T26">
+        <v>0.007893537720549869</v>
       </c>
     </row>
   </sheetData>
